--- a/src/main/webapp/book/autofill.xlsx
+++ b/src/main/webapp/book/autofill.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hawk/Documents/workspace/KEIKAI-SPACE/java-client-demo/src/main/webapp/book/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34100" yWindow="1700" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,24 +54,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Q3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1st Period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Product 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Product 2</t>
   </si>
 </sst>
 </file>
@@ -82,14 +79,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -97,7 +94,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -407,20 +404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -435,7 +433,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -470,20 +468,16 @@
         <v>2007</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -506,13 +500,14 @@
       <c r="K3">
         <v>2008</v>
       </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
       <c r="M3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -520,10 +515,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="D5" s="1"/>
@@ -533,7 +527,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="D6" s="1"/>
@@ -543,7 +537,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
